--- a/college/Download.xlsx
+++ b/college/Download.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,22 +437,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>roll_no</t>
+          <t>ROLL_NO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>august_29_2020</t>
+          <t>PRESENT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>august_30_2020</t>
+          <t>PERCENTAGE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUGUST_29_2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AUGUST_28_2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AUGUST_27_2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AUGUST_30_2020</t>
         </is>
       </c>
     </row>
@@ -467,12 +487,28 @@
           <t>AAYUSH DADHICH</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -489,14 +525,30 @@
           <t>ABHISHEK PANCHOLI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>P</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -511,12 +563,28 @@
           <t>ADITI JAIN</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -533,12 +601,28 @@
           <t>ADNAN PIPAWALA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -555,12 +639,28 @@
           <t>AKHILESH JOSHI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -577,12 +677,28 @@
           <t>AKSHAY SHARMA</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -599,12 +715,28 @@
           <t>ANAM QUAZI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -621,12 +753,28 @@
           <t>ANJALI MEWADA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -643,12 +791,28 @@
           <t>ANN MARY THOMAS</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -665,12 +829,28 @@
           <t>APOORV PANWAR</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -687,12 +867,28 @@
           <t>ARYAN JAIN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -709,12 +905,28 @@
           <t>ASHA YADAV</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -731,12 +943,28 @@
           <t>AVI KUMAR TRIPATHI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -753,12 +981,28 @@
           <t>AYAN SHARMA</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -775,12 +1019,28 @@
           <t>AYUSH GADIYA</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -797,12 +1057,28 @@
           <t>BHAVIKA BHATNAGAR</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -819,12 +1095,28 @@
           <t>BHAVYA KUMAWAT</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -841,12 +1133,28 @@
           <t>BHAVYA LOHAR</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -863,12 +1171,28 @@
           <t>BHUMIKA SALVI</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -885,12 +1209,28 @@
           <t>CHAHAT JOSHI</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -907,12 +1247,28 @@
           <t>CHAHAT LODHA</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -929,12 +1285,28 @@
           <t>CHARUL MEHTA</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -951,12 +1323,28 @@
           <t>CHIRAG JAIN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -973,12 +1361,28 @@
           <t>CHIRAG PALIWAL</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -995,12 +1399,28 @@
           <t>DARSHAN JAIN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1017,12 +1437,28 @@
           <t>DHAIRYA KANTHALIA</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1039,12 +1475,28 @@
           <t>DHRUV BHATI</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1061,12 +1513,28 @@
           <t>DHRUVIT POKHARNA</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1083,12 +1551,28 @@
           <t>EAKANSH JAIN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1105,12 +1589,28 @@
           <t>GARGI SHARMA</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1127,12 +1627,28 @@
           <t>GAZAL LODHA</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1149,12 +1665,28 @@
           <t>GAZALA PATWALA</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1171,12 +1703,28 @@
           <t>GEETESH KASHYAP</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1193,12 +1741,28 @@
           <t>HARDI JAIN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1215,12 +1779,28 @@
           <t>HARSHIL TAUNK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1237,12 +1817,28 @@
           <t>HARSHIT JAIN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1259,12 +1855,28 @@
           <t>HARSHIT KASODNIYA</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1281,12 +1893,28 @@
           <t>HARSHIT PANERI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1303,12 +1931,28 @@
           <t>HARSHITA MEHTA</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1325,12 +1969,28 @@
           <t>HEEYA JOSHI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1347,12 +2007,28 @@
           <t>HEMANG SINGH BAYA</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1369,12 +2045,28 @@
           <t>HIMANSH SONI</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1391,12 +2083,28 @@
           <t>ISHIKA JAIN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1413,12 +2121,28 @@
           <t>JATIN MENARIA</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1435,12 +2159,28 @@
           <t>JAYESH KUGSIYA</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1457,12 +2197,28 @@
           <t>KARTIK DAVE</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1479,12 +2235,28 @@
           <t>KAVISH LODHA</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1501,12 +2273,28 @@
           <t>KOMOLIKA AGARWAL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1523,12 +2311,28 @@
           <t>KRATIK JAIN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1545,12 +2349,28 @@
           <t>KRISHNA GOSWAMI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1567,12 +2387,28 @@
           <t>KRITHIK JAIN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1589,12 +2425,28 @@
           <t>LAKHAN PRAJAPAT</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1611,12 +2463,28 @@
           <t>LAXMI KUNWAR PANWAR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1633,12 +2501,28 @@
           <t>MEHUL JOSHI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1655,12 +2539,28 @@
           <t>MIHIR BHAWSAR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1677,12 +2577,28 @@
           <t>MOHAMMED RAUF ASHRAF BAIG MIRZ</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1699,12 +2615,28 @@
           <t>MOHIT CHOUDHARY</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1721,12 +2653,28 @@
           <t>MOHIT MENARIA</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1743,12 +2691,28 @@
           <t>MOHIT SADHWANI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1765,12 +2729,28 @@
           <t>MUSKAN PANJWANI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1787,12 +2767,28 @@
           <t>NIMIT RANKA</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1809,12 +2805,28 @@
           <t>NITIN BAGDI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1831,12 +2843,28 @@
           <t>PALASH SIYAL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1853,12 +2881,28 @@
           <t>PAYAL PATEL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1875,12 +2919,28 @@
           <t>PIHU JAIN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1897,12 +2957,28 @@
           <t>PORWAL YASH LOKESH</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1919,12 +2995,28 @@
           <t>PRANJAL JAIN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1941,12 +3033,28 @@
           <t>PRIYESH SONI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1963,12 +3071,28 @@
           <t>RAHUL BADLANI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1985,12 +3109,28 @@
           <t>RAVINDRA PRATAP SINGH</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2007,12 +3147,28 @@
           <t>SEJAL JAIN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2029,12 +3185,28 @@
           <t>SHASHANK GORANA</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2051,12 +3223,28 @@
           <t>SHIVANGI DHARMAWAT</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2073,12 +3261,28 @@
           <t>SHREYANSH KUMAR TIWARI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2095,12 +3299,28 @@
           <t>SHUBHAM MAHESHWARI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2117,12 +3337,28 @@
           <t>SIDDHARTH JAIN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2139,12 +3375,28 @@
           <t>SRUSHTI CHOUDHRI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2161,12 +3413,28 @@
           <t>SUHANI JAIN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2183,12 +3451,28 @@
           <t>SUMANT VYAS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2205,12 +3489,28 @@
           <t>SURBHI SINGH</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2227,12 +3527,28 @@
           <t>SURYAVEER SINGH</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2249,12 +3565,28 @@
           <t>TANMAY PRAJAPAT</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2271,12 +3603,28 @@
           <t>TARUN TAILOR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2293,12 +3641,28 @@
           <t>TEJASVINI PRAKASH MEHTA</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2315,12 +3679,28 @@
           <t>THAKUR NUPUR GIRISH</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2337,12 +3717,28 @@
           <t>TINA SONI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2359,12 +3755,28 @@
           <t>VAIBHAV SONI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2381,12 +3793,28 @@
           <t>VIDUSHI DHAKAR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2403,12 +3831,28 @@
           <t>VIVEK SAHU</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2425,12 +3869,28 @@
           <t>VRATI BHANDARI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2447,12 +3907,28 @@
           <t>WASIM AHMAD BHAT</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2469,12 +3945,28 @@
           <t>YASH JOSHI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2491,12 +3983,28 @@
           <t>YASRA FATEMA</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2513,12 +4021,28 @@
           <t>YOGYATA RATHORE</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2535,12 +4059,28 @@
           <t>ASHISH JAIN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2557,12 +4097,28 @@
           <t>DIVYA DARSHANCHOUBISA</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2579,12 +4135,28 @@
           <t>GARIMA NAGDA</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2601,12 +4173,28 @@
           <t>JINAL BHARDWAJ</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2623,12 +4211,28 @@
           <t>NARESH MALI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2645,12 +4249,28 @@
           <t>POOJA DAVE</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -2667,12 +4287,28 @@
           <t>SIDDHESH JAIN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>50</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>A</t>
         </is>
